--- a/446-cp-locationmanagingorganization-ajout-description-et-changement-cardinalité/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
+++ b/446-cp-locationmanagingorganization-ajout-description-et-changement-cardinalité/ig/StructureDefinition-ror-contact-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T16:57:30+00:00</t>
+    <t>2026-01-19T14:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
